--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1758886.750301332</v>
+        <v>1754584.588404865</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>162.5831330369105</v>
       </c>
       <c r="E2" t="n">
-        <v>153.8072380324131</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.09783323005805</v>
+      </c>
+      <c r="H2" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="G2" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>176.0166538343223</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>156.4742470222691</v>
       </c>
       <c r="X3" t="n">
         <v>187.5255871663199</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4972694866462018</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>89.06037262090237</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.2299344537551</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.2299344537551</v>
       </c>
       <c r="D5" t="n">
-        <v>349.2299344537549</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>203.7042720759958</v>
+        <v>326.2545252983412</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537549</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537549</v>
+        <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397888</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908714</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419599</v>
+        <v>10.24893599370438</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>8.321493021612113</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>168.1869541888598</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.535779957332</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>222.7683782894352</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>72.92107662520144</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>98.11409836829861</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>189.4755516291269</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54.68820920263103</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>63.16281301712667</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>80.33989744909022</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>65.99480013030511</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>64.91921363453632</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>35.88641949135634</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.3722917337067</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.0584634348817</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>219.2450387532285</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>139.6152205166466</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.0291980517616</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>38.61213096654825</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="C2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="D2" t="n">
-        <v>549.202463503662</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="E2" t="n">
-        <v>393.841617006275</v>
+        <v>224.59746731481</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="H2" t="n">
         <v>15.00204697330559</v>
@@ -4330,16 +4330,16 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
@@ -4348,34 +4348,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.622248520147</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201467</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201467</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201467</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="W2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="X2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.202463503662</v>
+        <v>578.2426392372651</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>213.2079836603211</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>213.2079836603211</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4421,40 +4421,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389238</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389238</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U3" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V3" t="n">
-        <v>393.841617006275</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897903</v>
+        <v>402.6277686768059</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>213.2079836603211</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>213.2079836603211</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>615.4360465467577</v>
+        <v>568.45388383504</v>
       </c>
       <c r="C4" t="n">
-        <v>615.4360465467577</v>
+        <v>568.45388383504</v>
       </c>
       <c r="D4" t="n">
-        <v>615.4360465467577</v>
+        <v>478.4939114906941</v>
       </c>
       <c r="E4" t="n">
-        <v>467.5229529643645</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F4" t="n">
-        <v>320.6330054664542</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N4" t="n">
-        <v>488.6815517114713</v>
+        <v>471.6341805242517</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608019</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575114</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575114</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575114</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U4" t="n">
-        <v>615.9383389575114</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V4" t="n">
-        <v>615.9383389575114</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W4" t="n">
-        <v>615.9383389575114</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X4" t="n">
-        <v>615.9383389575114</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y4" t="n">
-        <v>615.9383389575114</v>
+        <v>750.1023486652797</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1396.91973781502</v>
+        <v>1044.162228265773</v>
       </c>
       <c r="C5" t="n">
-        <v>1396.91973781502</v>
+        <v>691.4047187165251</v>
       </c>
       <c r="D5" t="n">
-        <v>1044.162228265772</v>
+        <v>691.4047187165251</v>
       </c>
       <c r="E5" t="n">
-        <v>838.4003372799178</v>
+        <v>361.8546931626451</v>
       </c>
       <c r="F5" t="n">
-        <v>485.6428277306704</v>
+        <v>354.9091924134416</v>
       </c>
       <c r="G5" t="n">
-        <v>132.885318181423</v>
+        <v>342.2443073217436</v>
       </c>
       <c r="H5" t="n">
-        <v>132.885318181423</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630039</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874563</v>
+        <v>80.99020340874586</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620528</v>
+        <v>211.2396305620537</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458657</v>
+        <v>409.7273242458667</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973819</v>
+        <v>662.2525653973829</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365738</v>
+        <v>923.4777373365749</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477532</v>
+        <v>1156.809998477533</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169733</v>
+        <v>1321.452684169734</v>
       </c>
       <c r="Q5" t="n">
         <v>1396.91973781502</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>226.0345880892266</v>
+        <v>804.6870533177866</v>
       </c>
       <c r="C6" t="n">
-        <v>226.0345880892266</v>
+        <v>630.2340240366597</v>
       </c>
       <c r="D6" t="n">
-        <v>226.0345880892266</v>
+        <v>481.2996143754084</v>
       </c>
       <c r="E6" t="n">
-        <v>66.79713308377109</v>
+        <v>322.0621593699529</v>
       </c>
       <c r="F6" t="n">
-        <v>66.79713308377109</v>
+        <v>175.5276013968379</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377109</v>
+        <v>38.2908553560018</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377109</v>
+        <v>38.2908553560018</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630039</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143058</v>
+        <v>40.7178415914306</v>
       </c>
       <c r="K6" t="n">
         <v>140.7147764379367</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824488</v>
+        <v>374.7065044384321</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158602</v>
+        <v>605.0259931718435</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947644</v>
+        <v>855.8499983507477</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887848</v>
+        <v>1201.587633459965</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411831</v>
+        <v>1348.579058983949</v>
       </c>
       <c r="Q6" t="n">
         <v>1396.91973781502</v>
@@ -4673,25 +4673,25 @@
         <v>1388.514189308341</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880424</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="T6" t="n">
-        <v>1046.684307603436</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="U6" t="n">
-        <v>876.798495291456</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="V6" t="n">
-        <v>641.6463870597133</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="W6" t="n">
-        <v>641.6463870597133</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="X6" t="n">
-        <v>433.7948868541805</v>
+        <v>1180.662689102809</v>
       </c>
       <c r="Y6" t="n">
-        <v>226.0345880892266</v>
+        <v>972.9023903378547</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.2346809183292</v>
+        <v>478.6024500207146</v>
       </c>
       <c r="C7" t="n">
-        <v>352.2346809183292</v>
+        <v>478.6024500207146</v>
       </c>
       <c r="D7" t="n">
-        <v>202.1180415059935</v>
+        <v>328.4858106083789</v>
       </c>
       <c r="E7" t="n">
-        <v>202.1180415059935</v>
+        <v>180.5727170259858</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1180415059935</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807543</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807543</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807543</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630039</v>
+        <v>27.93839475630041</v>
       </c>
       <c r="K7" t="n">
         <v>148.5233105874689</v>
@@ -4749,28 +4749,28 @@
         <v>1182.690698049271</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950956</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="S7" t="n">
-        <v>1059.927283950956</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.927283950956</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="U7" t="n">
-        <v>834.9087200222334</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="V7" t="n">
-        <v>580.2242318163466</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2242318163466</v>
+        <v>1109.033044892502</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2346809183292</v>
+        <v>881.0434939944845</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.2346809183292</v>
+        <v>660.2509148509544</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1716.437901607243</v>
+        <v>1844.676600992463</v>
       </c>
       <c r="C8" t="n">
-        <v>1347.475384666831</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1117.448385445301</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>731.6601328470565</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>320.6742280574489</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>309.0098818221419</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4804,13 +4804,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y8" t="n">
-        <v>1716.437901607243</v>
+        <v>2231.276441056585</v>
       </c>
     </row>
     <row r="9">
@@ -4871,13 +4871,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,22 +4886,22 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>771.7836012132566</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>602.8474182853497</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7307788730139</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.23396574994</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1047.81679571298</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1047.81679571298</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>827.0242165694495</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5050,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311364</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1896.309668945771</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1641.625180739884</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613761</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.530292372933</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C19" t="n">
-        <v>853.594109445026</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>703.4774700326902</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>555.5643764502971</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>408.6744289523867</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>241.4783296672667</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6080,13 +6080,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>228.5361496476756</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,19 +6238,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.530292372933</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>853.594109445026</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>703.4774700326902</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,22 +6463,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.53722908186</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4517.069482196494</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4517.069482196494</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990608</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953647</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912099</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1089.575996120531</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>920.6398131926237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2264.108249235165</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>2009.423761029278</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1720.006590992318</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1492.0170400943</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1271.22446095077</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,19 +7660,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8139,19 +8139,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>82.97369176944341</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>145.8220995101049</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>53.74845207675085</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>139.90148284458</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.64993492133</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L9" t="n">
-        <v>319.4183821282443</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>104.0840080815012</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>205.8445769401539</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>186.1428431935229</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>75.37549921168754</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>145.1398665102882</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>12.04875628922451</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>75.37549921168747</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>32.8926045705995</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>9.000252501565711</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405072</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>110.0033420516641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="N2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>178997.5061427109</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731215</v>
+        <v>301519.8707731214</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267246</v>
+        <v>41617.52445267256</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019578</v>
+        <v>73739.30240019559</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26429,7 +26429,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26438,28 +26438,28 @@
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029171</v>
+        <v>69851.97930029173</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26524,46 +26524,46 @@
         <v>-371610.3567047808</v>
       </c>
       <c r="C6" t="n">
-        <v>75765.57023469193</v>
+        <v>75765.57023469177</v>
       </c>
       <c r="D6" t="n">
         <v>14590.32074748704</v>
       </c>
       <c r="E6" t="n">
-        <v>-77390.8247695418</v>
+        <v>-77738.2040238989</v>
       </c>
       <c r="F6" t="n">
-        <v>430094.6168550042</v>
+        <v>429747.2376006474</v>
       </c>
       <c r="G6" t="n">
-        <v>430094.6168550043</v>
+        <v>429747.237600647</v>
       </c>
       <c r="H6" t="n">
-        <v>430094.6168550046</v>
+        <v>429747.2376006472</v>
       </c>
       <c r="I6" t="n">
-        <v>430094.616855004</v>
+        <v>429747.237600647</v>
       </c>
       <c r="J6" t="n">
-        <v>381029.6721264597</v>
+        <v>380682.2928721026</v>
       </c>
       <c r="K6" t="n">
-        <v>388477.0924023319</v>
+        <v>388129.7131479745</v>
       </c>
       <c r="L6" t="n">
-        <v>356355.3144548085</v>
+        <v>356007.9352004516</v>
       </c>
       <c r="M6" t="n">
-        <v>297487.3231260777</v>
+        <v>297139.9438717206</v>
       </c>
       <c r="N6" t="n">
-        <v>430094.6168550042</v>
+        <v>429747.237600647</v>
       </c>
       <c r="O6" t="n">
-        <v>430094.616855004</v>
+        <v>429747.2376006472</v>
       </c>
       <c r="P6" t="n">
-        <v>430094.6168550043</v>
+        <v>429747.237600647</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537549</v>
+        <v>349.2299344537551</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26801,28 +26801,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>246.3952001219694</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.704347287435</v>
+        <v>161.7043472874352</v>
       </c>
       <c r="D4" t="n">
-        <v>291.354897646284</v>
+        <v>291.3548976462837</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874346</v>
+        <v>161.704347287435</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462845</v>
+        <v>291.3548976462837</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27260,10 +27260,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287435</v>
+        <v>161.7043472874352</v>
       </c>
       <c r="L4" t="n">
-        <v>291.354897646284</v>
+        <v>291.3548976462837</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>192.0999085837724</v>
       </c>
       <c r="E2" t="n">
-        <v>228.1231320398487</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>49.84711457576864</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>95.22073613865047</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.3347106952911</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>59.55510039730999</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>33.50390720972547</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>16.04295731725244</v>
       </c>
       <c r="D5" t="n">
-        <v>5.453107166928078</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>178.2260979962659</v>
+        <v>55.67584477392063</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795656</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>63.30830178702612</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908714</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>97.95007950277717</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>28.22121495049161</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>57.65711614324769</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
@@ -27830,19 +27830,19 @@
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>63.4830114252201</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>213.6019217113896</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>256.5689432523843</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>111.5430009332785</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.1437709793063</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>574.6535388222617</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
+        <v>99.08507489005493</v>
+      </c>
+      <c r="N4" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="N4" t="n">
-        <v>23.66518529520826</v>
-      </c>
       <c r="O4" t="n">
-        <v>147.1624568175055</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -35020,7 +35020,7 @@
         <v>101.0070048954607</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318304</v>
+        <v>236.3552808085812</v>
       </c>
       <c r="M6" t="n">
         <v>232.6459482155671</v>
@@ -35029,13 +35029,13 @@
         <v>253.3575809887921</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091751</v>
+        <v>349.2299344537551</v>
       </c>
       <c r="P6" t="n">
         <v>148.4761873979633</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375638</v>
+        <v>48.8289685162338</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L9" t="n">
-        <v>617.0987427660945</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>432.0572943778172</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1754584.588404865</v>
+        <v>1756345.11870765</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>162.5831330369105</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>169.459178778622</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>37.41955400821245</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>156.4742470222691</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>127.7950465518479</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>89.06037262090237</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537551</v>
+        <v>349.229934453756</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537551</v>
+        <v>349.229934453756</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.229934453756</v>
       </c>
       <c r="E5" t="n">
-        <v>326.2545252983412</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>50.80422953738309</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908713</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277716</v>
       </c>
       <c r="I6" t="n">
-        <v>10.24893599370438</v>
+        <v>38.47015094419592</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612113</v>
+        <v>8.321493021611971</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>154.7622965205464</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057287</v>
+        <v>5.686931024057159</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>72.92107662520144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>12.10773367764923</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>282.7650901281459</v>
       </c>
       <c r="H8" t="n">
-        <v>189.4755516291269</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483592</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8170508184371</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,13 +1660,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>66.78466399819841</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>65.99480013030511</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>47.84205650381972</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9586765026952</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>166.3208822291519</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>13.74238375877706</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>40.15381658332819</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.2426392372651</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="C2" t="n">
-        <v>578.2426392372651</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="D2" t="n">
-        <v>414.0172523312948</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="E2" t="n">
-        <v>224.59746731481</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656066</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897904</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058996</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.622248520147</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372651</v>
+        <v>578.2426392372652</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372651</v>
+        <v>407.0717515820915</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372651</v>
+        <v>407.0717515820915</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372651</v>
+        <v>407.0717515820915</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372651</v>
+        <v>407.0717515820915</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372651</v>
+        <v>407.0717515820915</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.2426392372651</v>
+        <v>407.0717515820915</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>213.2079836603211</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="C3" t="n">
-        <v>213.2079836603211</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652797</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652797</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652797</v>
+        <v>685.1217629831032</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652797</v>
+        <v>685.1217629831032</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487949</v>
+        <v>495.7019779666184</v>
       </c>
       <c r="W3" t="n">
-        <v>402.6277686768059</v>
+        <v>306.2821929501335</v>
       </c>
       <c r="X3" t="n">
-        <v>213.2079836603211</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="Y3" t="n">
-        <v>213.2079836603211</v>
+        <v>116.8624079336487</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>568.45388383504</v>
+        <v>617.6395923767003</v>
       </c>
       <c r="C4" t="n">
-        <v>568.45388383504</v>
+        <v>617.6395923767003</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4939114906941</v>
+        <v>467.5229529643645</v>
       </c>
       <c r="E4" t="n">
-        <v>330.580817908301</v>
+        <v>467.5229529643645</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6908704103906</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>100.3335179349383</v>
       </c>
       <c r="M4" t="n">
-        <v>285.983849229595</v>
+        <v>285.9838492295951</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242517</v>
+        <v>471.6341805242519</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608019</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1044.162228265773</v>
+        <v>896.6632416022376</v>
       </c>
       <c r="C5" t="n">
-        <v>691.4047187165251</v>
+        <v>543.9057320529892</v>
       </c>
       <c r="D5" t="n">
-        <v>691.4047187165251</v>
+        <v>191.1482225037407</v>
       </c>
       <c r="E5" t="n">
-        <v>361.8546931626451</v>
+        <v>191.1482225037407</v>
       </c>
       <c r="F5" t="n">
-        <v>354.9091924134416</v>
+        <v>184.2027217545372</v>
       </c>
       <c r="G5" t="n">
-        <v>342.2443073217436</v>
+        <v>132.885318181423</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630041</v>
+        <v>132.885318181423</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630041</v>
+        <v>27.93839475630048</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874586</v>
+        <v>80.99020340874625</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620537</v>
+        <v>211.2396305620538</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458667</v>
+        <v>409.7273242458673</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973829</v>
+        <v>662.2525653973839</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365749</v>
+        <v>923.4777373365768</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477533</v>
+        <v>1156.809998477535</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169734</v>
+        <v>1321.452684169737</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.91973781502</v>
+        <v>1249.420751151486</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.91973781502</v>
+        <v>1249.420751151486</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.91973781502</v>
+        <v>1249.420751151486</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.91973781502</v>
+        <v>1249.420751151486</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.91973781502</v>
+        <v>1249.420751151486</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.91973781502</v>
+        <v>1249.420751151486</v>
       </c>
       <c r="Y5" t="n">
-        <v>1396.91973781502</v>
+        <v>1249.420751151486</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>804.6870533177866</v>
+        <v>648.3615012768344</v>
       </c>
       <c r="C6" t="n">
-        <v>630.2340240366597</v>
+        <v>473.9084719957074</v>
       </c>
       <c r="D6" t="n">
-        <v>481.2996143754084</v>
+        <v>324.9740623344561</v>
       </c>
       <c r="E6" t="n">
-        <v>322.0621593699529</v>
+        <v>165.7366073290006</v>
       </c>
       <c r="F6" t="n">
-        <v>175.5276013968379</v>
+        <v>165.7366073290006</v>
       </c>
       <c r="G6" t="n">
-        <v>38.2908553560018</v>
+        <v>165.7366073290006</v>
       </c>
       <c r="H6" t="n">
-        <v>38.2908553560018</v>
+        <v>66.79713308377112</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630041</v>
+        <v>27.93839475630048</v>
       </c>
       <c r="J6" t="n">
-        <v>40.7178415914306</v>
+        <v>40.71784159143087</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379367</v>
+        <v>140.7147764379373</v>
       </c>
       <c r="L6" t="n">
-        <v>374.7065044384321</v>
+        <v>321.4955368824499</v>
       </c>
       <c r="M6" t="n">
-        <v>605.0259931718435</v>
+        <v>551.8150256158618</v>
       </c>
       <c r="N6" t="n">
-        <v>855.8499983507477</v>
+        <v>802.6390307947665</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459965</v>
+        <v>1009.87419788785</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983949</v>
+        <v>1156.865623411835</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815024</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308341</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308341</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308341</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308341</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="V6" t="n">
-        <v>1388.514189308341</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="W6" t="n">
-        <v>1388.514189308341</v>
+        <v>1232.188637267389</v>
       </c>
       <c r="X6" t="n">
-        <v>1180.662689102809</v>
+        <v>1024.337137061856</v>
       </c>
       <c r="Y6" t="n">
-        <v>972.9023903378547</v>
+        <v>816.5768382969025</v>
       </c>
     </row>
     <row r="7">
@@ -4713,58 +4713,58 @@
         <v>180.5727170259858</v>
       </c>
       <c r="F7" t="n">
-        <v>33.68276952807545</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807545</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807545</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807545</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630041</v>
+        <v>27.93839475630048</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874689</v>
+        <v>148.5233105874692</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208637</v>
+        <v>358.3569215208643</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014271</v>
+        <v>589.9861665014279</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750243</v>
+        <v>821.5424021750254</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767885</v>
+        <v>1019.405768767886</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612031</v>
+        <v>1165.191378612032</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="V7" t="n">
-        <v>1182.690698049271</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="W7" t="n">
-        <v>1109.033044892502</v>
+        <v>893.273528012312</v>
       </c>
       <c r="X7" t="n">
         <v>881.0434939944845</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.676600992463</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.714084052051</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.448385445301</v>
+        <v>1133.642247115598</v>
       </c>
       <c r="E8" t="n">
-        <v>731.6601328470565</v>
+        <v>747.8539945173541</v>
       </c>
       <c r="F8" t="n">
-        <v>320.6742280574489</v>
+        <v>336.8680897277465</v>
       </c>
       <c r="G8" t="n">
-        <v>309.0098818221419</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4843,13 +4843,13 @@
         <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056585</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056585</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="9">
@@ -4871,13 +4871,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768874</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944943</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>119.599202296584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2129.60328892373</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.927936255316</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>365.9405071576781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="26">
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>301.5721730233224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>301.5721730233224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>134.3760737382024</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8142,10 +8142,10 @@
         <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528946</v>
       </c>
       <c r="M4" t="n">
-        <v>82.97369176944341</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898958</v>
+        <v>41.92993463898932</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>53.74845207675085</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>139.90148284458</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>193.6499349213309</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>32.89260457060001</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>117.6820817884491</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>203.6630665685112</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880491.4179320154</v>
+        <v>880491.4179320153</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320154</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
         <v>544823.954790754</v>
@@ -26368,10 +26368,10 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427109</v>
+        <v>178997.5061427121</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731214</v>
+        <v>301519.8707731203</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245459</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267256</v>
+        <v>41617.52445267289</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019559</v>
+        <v>73739.30240019527</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26420,10 +26420,10 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.138980697</v>
+        <v>229588.1389806967</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26459,7 +26459,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029173</v>
+        <v>69851.9793002918</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-371610.3567047808</v>
+        <v>-371610.356704781</v>
       </c>
       <c r="C6" t="n">
-        <v>75765.57023469177</v>
+        <v>75765.57023469068</v>
       </c>
       <c r="D6" t="n">
-        <v>14590.32074748704</v>
+        <v>14590.32074748835</v>
       </c>
       <c r="E6" t="n">
-        <v>-77738.2040238989</v>
+        <v>-77425.56269497755</v>
       </c>
       <c r="F6" t="n">
-        <v>429747.2376006474</v>
+        <v>430059.8789295682</v>
       </c>
       <c r="G6" t="n">
-        <v>429747.237600647</v>
+        <v>430059.8789295682</v>
       </c>
       <c r="H6" t="n">
-        <v>429747.2376006472</v>
+        <v>430059.8789295682</v>
       </c>
       <c r="I6" t="n">
-        <v>429747.237600647</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="J6" t="n">
-        <v>380682.2928721026</v>
+        <v>380994.9342010235</v>
       </c>
       <c r="K6" t="n">
-        <v>388129.7131479745</v>
+        <v>388442.3544768955</v>
       </c>
       <c r="L6" t="n">
-        <v>356007.9352004516</v>
+        <v>356320.576529373</v>
       </c>
       <c r="M6" t="n">
-        <v>297139.9438717206</v>
+        <v>297452.5852006415</v>
       </c>
       <c r="N6" t="n">
-        <v>429747.237600647</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="O6" t="n">
-        <v>429747.2376006472</v>
+        <v>430059.8789295685</v>
       </c>
       <c r="P6" t="n">
-        <v>429747.237600647</v>
+        <v>430059.8789295682</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955697</v>
+        <v>687.6696919955707</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537551</v>
+        <v>349.229934453756</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26962,10 +26962,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826651</v>
+        <v>139.1997510826661</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219694</v>
+        <v>246.3952001219684</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874352</v>
+        <v>161.704347287436</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462837</v>
+        <v>291.3548976462829</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287435</v>
+        <v>161.7043472874362</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462837</v>
+        <v>291.3548976462824</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874352</v>
+        <v>161.704347287436</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462837</v>
+        <v>291.3548976462829</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>192.0999085837724</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>43.9847022775848</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,10 +27475,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>157.9900437837888</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310535</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>95.22073613865047</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715755</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.03693363008938</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>59.55510039730999</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972547</v>
+        <v>33.50390720972462</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725244</v>
+        <v>16.04295731725159</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.453107166926998</v>
       </c>
       <c r="E5" t="n">
-        <v>55.67584477392063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>361.7340067033979</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908714</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969025</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277717</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28.22121495049161</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
         <v>194.2027622142185</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>96.93268664037325</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.535779957332</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>213.6019217113896</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>213.6019217113879</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>128.7826126448081</v>
       </c>
       <c r="H8" t="n">
-        <v>111.5430009332785</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354047</v>
+        <v>2.764501274354051</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597839</v>
+        <v>28.31194867597843</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795345</v>
+        <v>106.5784353795347</v>
       </c>
       <c r="J5" t="n">
-        <v>234.633590034207</v>
+        <v>234.6335900342073</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776138</v>
+        <v>351.6549289776144</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526266</v>
+        <v>436.2590348526273</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904204</v>
+        <v>485.4222343904211</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361789</v>
+        <v>493.2768736361796</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893208</v>
+        <v>465.7873640893214</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787052</v>
+        <v>397.5387388787058</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909008</v>
+        <v>298.5350369909012</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751425</v>
+        <v>173.6556031751428</v>
       </c>
       <c r="S5" t="n">
-        <v>62.9960727893429</v>
+        <v>62.996072789343</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848485</v>
+        <v>12.10160432848486</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483237</v>
+        <v>0.221160101948324</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782924</v>
+        <v>1.479138582782926</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371929</v>
+        <v>14.28536473371931</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721908</v>
+        <v>50.92648190721916</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233639</v>
+        <v>139.7461588233641</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698197</v>
+        <v>238.8484438698201</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117046</v>
+        <v>321.161208511705</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375854</v>
+        <v>374.779982137586</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721254</v>
+        <v>384.699293072126</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536195</v>
+        <v>351.92469605362</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122936</v>
+        <v>282.450594812294</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022553</v>
+        <v>188.8107426022556</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103102</v>
+        <v>91.83634113103116</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020034</v>
+        <v>27.47435043020038</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603097</v>
+        <v>5.961966480603106</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729764</v>
+        <v>0.09731174886729778</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.24006010031988</v>
+        <v>1.240060100319881</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920767</v>
+        <v>11.02526161920768</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871057</v>
+        <v>37.29198919871063</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261549</v>
+        <v>87.67224909261562</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098914</v>
+        <v>144.0724371098916</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966483</v>
+        <v>184.3631170966486</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619607</v>
+        <v>194.385057361961</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698595</v>
+        <v>189.7630151698598</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433954</v>
+        <v>175.2768585433957</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968698</v>
+        <v>149.97963249687</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.838123491331</v>
+        <v>103.8381234913312</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983748</v>
+        <v>55.75761141983757</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648371</v>
+        <v>21.61086556648375</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457666</v>
+        <v>5.298438610457674</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562987</v>
+        <v>0.06763964183562998</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33672,13 +33672,13 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>86.19340501175023</v>
       </c>
       <c r="M4" t="n">
-        <v>99.08507489005493</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752072</v>
+        <v>53.58768550752106</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326333</v>
+        <v>131.5650779326339</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826394</v>
+        <v>200.49261988264</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631477</v>
+        <v>255.0760011631484</v>
       </c>
       <c r="N5" t="n">
-        <v>263.863810039588</v>
+        <v>263.8638100395887</v>
       </c>
       <c r="O5" t="n">
-        <v>235.689152667634</v>
+        <v>235.6891526676347</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234357</v>
+        <v>166.3057431234362</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645129</v>
+        <v>76.22934711645175</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669716</v>
+        <v>12.90853215669736</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954607</v>
+        <v>101.0070048954611</v>
       </c>
       <c r="L6" t="n">
-        <v>236.3552808085812</v>
+        <v>182.6068287318308</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155671</v>
+        <v>232.6459482155677</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887921</v>
+        <v>253.3575809887926</v>
       </c>
       <c r="O6" t="n">
-        <v>349.2299344537551</v>
+        <v>209.3284516091756</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979633</v>
+        <v>148.4761873979637</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.8289685162338</v>
+        <v>242.4789034375649</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840086</v>
+        <v>121.8029452840088</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569645</v>
+        <v>211.9531423569647</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238013</v>
+        <v>233.9689343238016</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490881</v>
+        <v>233.8951875490884</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574351</v>
+        <v>199.8619864574353</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617632</v>
+        <v>147.2581917617634</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963663</v>
+        <v>17.67608023963679</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37320,13 +37320,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
